--- a/Data/EC/NIT-9014801495.xlsx
+++ b/Data/EC/NIT-9014801495.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA5524F8-5B8D-4B5B-AB08-E1EE48691882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ACF926C-4CEA-42A8-8180-AFEB96431A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{022DAA58-DCFD-46BC-A32C-CEE3E7A4D4D5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5016D6D8-3C2E-4E6B-8D1E-73036C4177F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="93">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,16 +65,193 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1043964907</t>
+  </si>
+  <si>
+    <t>WILMER GARCIA CORREA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1047438740</t>
+  </si>
+  <si>
+    <t>FREDY FERRER AREVALO</t>
+  </si>
+  <si>
+    <t>1193156915</t>
+  </si>
+  <si>
+    <t>ANGEL CUSTODIO VILLA MOY</t>
+  </si>
+  <si>
+    <t>1047506106</t>
+  </si>
+  <si>
+    <t>LEWIS MARIN ATENCIO</t>
+  </si>
+  <si>
+    <t>73136262</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL RODRIGUEZ MIRANDA</t>
+  </si>
+  <si>
+    <t>1047418795</t>
+  </si>
+  <si>
+    <t>YONATAN MARIMON</t>
+  </si>
+  <si>
+    <t>9290359</t>
+  </si>
+  <si>
+    <t>EBERTO ENRIQUE ESCOBAR SIMANCA</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>1148449252</t>
+  </si>
+  <si>
+    <t>ALEXIS RICARDO GOMEZ</t>
+  </si>
+  <si>
+    <t>1193563003</t>
+  </si>
+  <si>
+    <t>WILSON MANUEL ULLOA ZABALETA</t>
+  </si>
+  <si>
+    <t>1193114006</t>
+  </si>
+  <si>
+    <t>JOSE DE LOS SANTOS MOYA MOYA</t>
+  </si>
+  <si>
+    <t>1143370596</t>
+  </si>
+  <si>
+    <t>CARLOS VILLA</t>
+  </si>
+  <si>
+    <t>1002389248</t>
+  </si>
+  <si>
+    <t>JADER MANUEL TORRES PUENTES</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1049829594</t>
+  </si>
+  <si>
+    <t>MAIKOL PUERTA SALCEDO</t>
+  </si>
+  <si>
+    <t>1047456819</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO NEVADO SEGOVIA</t>
+  </si>
+  <si>
+    <t>1051885775</t>
+  </si>
+  <si>
+    <t>JORGE LUIS PUERTA SALCEDO</t>
+  </si>
+  <si>
+    <t>1140856772</t>
+  </si>
+  <si>
+    <t>OSNAIDER YESID CAMARGO SANABRIA</t>
+  </si>
+  <si>
+    <t>12634006</t>
+  </si>
+  <si>
+    <t>DANIEL ERNESTO TORRES SARMIENTO</t>
+  </si>
+  <si>
+    <t>73229240</t>
+  </si>
+  <si>
+    <t>LIBARDO LUIS BENITEZ PADILLA</t>
+  </si>
+  <si>
+    <t>73167082</t>
+  </si>
+  <si>
+    <t>CARMELO ENRIQUE CARABALLO CANENCIA</t>
+  </si>
+  <si>
+    <t>39045502</t>
+  </si>
+  <si>
+    <t>PAOLA MARGARITA SEPULVEDA DIAZ</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5457074</t>
+  </si>
+  <si>
+    <t>JOSE LUIS RAMIREZ</t>
+  </si>
+  <si>
+    <t>1045236188</t>
+  </si>
+  <si>
+    <t>EDER ALFREDO DIAZ DURANGO</t>
+  </si>
+  <si>
+    <t>1048603343</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID VIVANCO MERCADO</t>
+  </si>
+  <si>
+    <t>73119149</t>
+  </si>
+  <si>
+    <t>JULIO DIAZ PEREZ</t>
+  </si>
+  <si>
+    <t>1045249706</t>
+  </si>
+  <si>
+    <t>CARLOS ENRIQUE ORTIZ AVILA</t>
+  </si>
+  <si>
+    <t>8802736</t>
+  </si>
+  <si>
+    <t>JOSE EDUARDO MOZO RIOS</t>
+  </si>
+  <si>
+    <t>8539703</t>
+  </si>
+  <si>
+    <t>ALEXIS JULIO BARRANCO LEIVA</t>
+  </si>
+  <si>
+    <t>72148622</t>
+  </si>
+  <si>
+    <t>RAFAEL SEGUNDO CAMARGO CAMARGO</t>
+  </si>
+  <si>
     <t>73006025</t>
   </si>
   <si>
     <t>DANILO RIOS PEREZ</t>
   </si>
   <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1042577705</t>
@@ -83,190 +260,28 @@
     <t>JHOEL ARMANDO NUÑEZ PEREZ</t>
   </si>
   <si>
-    <t>1002389248</t>
-  </si>
-  <si>
-    <t>JADER MANUEL TORRES PUENTES</t>
-  </si>
-  <si>
-    <t>9290359</t>
-  </si>
-  <si>
-    <t>EBERTO ENRIQUE ESCOBAR SIMANCA</t>
-  </si>
-  <si>
-    <t>1049829594</t>
-  </si>
-  <si>
-    <t>MAIKOL PUERTA SALCEDO</t>
-  </si>
-  <si>
-    <t>1043964907</t>
-  </si>
-  <si>
-    <t>WILMER GARCIA CORREA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1047456819</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO NEVADO SEGOVIA</t>
-  </si>
-  <si>
-    <t>1051885775</t>
-  </si>
-  <si>
-    <t>JORGE LUIS PUERTA SALCEDO</t>
-  </si>
-  <si>
-    <t>1140856772</t>
-  </si>
-  <si>
-    <t>OSNAIDER YESID CAMARGO SANABRIA</t>
-  </si>
-  <si>
-    <t>1047438740</t>
-  </si>
-  <si>
-    <t>FREDY FERRER AREVALO</t>
-  </si>
-  <si>
-    <t>1148449252</t>
-  </si>
-  <si>
-    <t>ALEXIS RICARDO GOMEZ</t>
-  </si>
-  <si>
-    <t>1193156915</t>
-  </si>
-  <si>
-    <t>ANGEL CUSTODIO VILLA MOY</t>
-  </si>
-  <si>
-    <t>12634006</t>
-  </si>
-  <si>
-    <t>DANIEL ERNESTO TORRES SARMIENTO</t>
-  </si>
-  <si>
-    <t>1193563003</t>
-  </si>
-  <si>
-    <t>WILSON MANUEL ULLOA ZABALETA</t>
-  </si>
-  <si>
-    <t>1047506106</t>
-  </si>
-  <si>
-    <t>LEWIS MARIN ATENCIO</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
     <t>6370859</t>
   </si>
   <si>
     <t>MAIKEL DAVID BASABE MARTINEZ</t>
   </si>
   <si>
-    <t>1193114006</t>
-  </si>
-  <si>
-    <t>JOSE DE LOS SANTOS MOYA MOYA</t>
-  </si>
-  <si>
-    <t>73229240</t>
-  </si>
-  <si>
-    <t>LIBARDO LUIS BENITEZ PADILLA</t>
-  </si>
-  <si>
-    <t>73167082</t>
-  </si>
-  <si>
-    <t>CARMELO ENRIQUE CARABALLO CANENCIA</t>
-  </si>
-  <si>
     <t>1143411676</t>
   </si>
   <si>
     <t>MERARYS MERISSA HERNANDEZ GOMEZ</t>
   </si>
   <si>
-    <t>73136262</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL RODRIGUEZ MIRANDA</t>
-  </si>
-  <si>
-    <t>1047418795</t>
-  </si>
-  <si>
-    <t>YONATAN MARIMON</t>
-  </si>
-  <si>
-    <t>1143370596</t>
-  </si>
-  <si>
-    <t>CARLOS VILLA</t>
-  </si>
-  <si>
-    <t>39045502</t>
-  </si>
-  <si>
-    <t>PAOLA MARGARITA SEPULVEDA DIAZ</t>
-  </si>
-  <si>
-    <t>5457074</t>
-  </si>
-  <si>
-    <t>JOSE LUIS RAMIREZ</t>
-  </si>
-  <si>
-    <t>1045236188</t>
-  </si>
-  <si>
-    <t>EDER ALFREDO DIAZ DURANGO</t>
-  </si>
-  <si>
-    <t>1048603343</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID VIVANCO MERCADO</t>
-  </si>
-  <si>
-    <t>73119149</t>
-  </si>
-  <si>
-    <t>JULIO DIAZ PEREZ</t>
-  </si>
-  <si>
-    <t>1045249706</t>
-  </si>
-  <si>
-    <t>CARLOS ENRIQUE ORTIZ AVILA</t>
-  </si>
-  <si>
-    <t>8802736</t>
-  </si>
-  <si>
-    <t>JOSE EDUARDO MOZO RIOS</t>
-  </si>
-  <si>
-    <t>8539703</t>
-  </si>
-  <si>
-    <t>ALEXIS JULIO BARRANCO LEIVA</t>
-  </si>
-  <si>
-    <t>72148622</t>
-  </si>
-  <si>
-    <t>RAFAEL SEGUNDO CAMARGO CAMARGO</t>
+    <t>1143229046</t>
+  </si>
+  <si>
+    <t>DANAWYS ALVEIRO TORRES PADILLA</t>
+  </si>
+  <si>
+    <t>1047042738</t>
+  </si>
+  <si>
+    <t>CESAR JOSE MEZA SIERRA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -365,7 +380,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -378,9 +395,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -580,23 +595,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,10 +639,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,7 +695,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7568AC-E23B-2136-7BD5-2AA8091A3DDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CF8585-5661-5BE7-F6A2-92A72DEB4466}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,8 +1046,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42496FA-75E6-4808-8971-FC9439D3D85F}">
-  <dimension ref="B2:J69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99896B24-B3FC-4B09-82F2-6F9C0B8CA6C1}">
+  <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1056,7 +1071,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1101,7 +1116,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1133,12 +1148,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1765140</v>
+        <v>3173456</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1149,17 +1164,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1186,13 +1201,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1209,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>1898</v>
       </c>
       <c r="G16" s="18">
         <v>1423500</v>
@@ -1223,16 +1238,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>32266</v>
       </c>
       <c r="G17" s="18">
         <v>1423500</v>
@@ -1246,16 +1261,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>24674</v>
+        <v>5694</v>
       </c>
       <c r="G18" s="18">
         <v>1423500</v>
@@ -1269,16 +1284,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>26572</v>
+        <v>32266</v>
       </c>
       <c r="G19" s="18">
         <v>1423500</v>
@@ -1292,16 +1307,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>1898</v>
       </c>
       <c r="G20" s="18">
         <v>1423500</v>
@@ -1315,16 +1330,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>41756</v>
+        <v>3796</v>
       </c>
       <c r="G21" s="18">
         <v>1423500</v>
@@ -1338,16 +1353,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>30368</v>
+        <v>41756</v>
       </c>
       <c r="G22" s="18">
         <v>1423500</v>
@@ -1361,16 +1376,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>1898</v>
+        <v>56940</v>
       </c>
       <c r="G23" s="18">
         <v>1423500</v>
@@ -1384,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F24" s="18">
         <v>41756</v>
@@ -1407,16 +1422,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>30368</v>
+        <v>56940</v>
       </c>
       <c r="G25" s="18">
         <v>1423500</v>
@@ -1430,16 +1445,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>1898</v>
+        <v>41756</v>
       </c>
       <c r="G26" s="18">
         <v>1423500</v>
@@ -1453,13 +1468,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
@@ -1476,16 +1491,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E28" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>56940</v>
+        <v>39858</v>
       </c>
       <c r="G28" s="18">
         <v>1423500</v>
@@ -1499,16 +1514,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G29" s="18">
         <v>1423500</v>
@@ -1522,16 +1537,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>41756</v>
       </c>
       <c r="G30" s="18">
         <v>1423500</v>
@@ -1545,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F31" s="18">
-        <v>41756</v>
+        <v>26572</v>
       </c>
       <c r="G31" s="18">
         <v>1423500</v>
@@ -1568,19 +1583,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F32" s="18">
         <v>56940</v>
       </c>
       <c r="G32" s="18">
-        <v>0</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1591,19 +1606,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" s="18">
-        <v>56940</v>
+        <v>30368</v>
       </c>
       <c r="G33" s="18">
-        <v>0</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1614,19 +1629,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F34" s="18">
-        <v>5694</v>
+        <v>41756</v>
       </c>
       <c r="G34" s="18">
-        <v>0</v>
+        <v>1423500</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1637,16 +1652,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F35" s="18">
-        <v>34164</v>
+        <v>30368</v>
       </c>
       <c r="G35" s="18">
         <v>1423500</v>
@@ -1660,16 +1675,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
-        <v>56940</v>
+        <v>1898</v>
       </c>
       <c r="G36" s="18">
         <v>1423500</v>
@@ -1683,16 +1698,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
-        <v>41756</v>
+        <v>56940</v>
       </c>
       <c r="G37" s="18">
         <v>1423500</v>
@@ -1706,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>56940</v>
@@ -1729,13 +1744,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>56940</v>
@@ -1752,16 +1767,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>32266</v>
+        <v>34164</v>
       </c>
       <c r="G40" s="18">
         <v>1423500</v>
@@ -1772,16 +1787,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
         <v>56940</v>
@@ -1795,16 +1810,16 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
         <v>56940</v>
@@ -1821,19 +1836,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
         <v>56940</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1844,19 +1859,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F44" s="18">
-        <v>39858</v>
+        <v>9490</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1867,16 +1882,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F45" s="18">
-        <v>9490</v>
+        <v>24674</v>
       </c>
       <c r="G45" s="18">
         <v>1423500</v>
@@ -1890,19 +1905,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F46" s="18">
-        <v>24674</v>
+        <v>56940</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1913,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F47" s="18">
         <v>56940</v>
@@ -1936,16 +1951,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F48" s="18">
-        <v>56940</v>
+        <v>45552</v>
       </c>
       <c r="G48" s="18">
         <v>1423500</v>
@@ -1956,7 +1971,7 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>53</v>
@@ -1965,10 +1980,10 @@
         <v>54</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F49" s="18">
-        <v>1898</v>
+        <v>37960</v>
       </c>
       <c r="G49" s="18">
         <v>1423500</v>
@@ -1988,10 +2003,10 @@
         <v>56</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F50" s="18">
-        <v>56940</v>
+        <v>20878</v>
       </c>
       <c r="G50" s="18">
         <v>1423500</v>
@@ -2005,16 +2020,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F51" s="18">
-        <v>56940</v>
+        <v>20878</v>
       </c>
       <c r="G51" s="18">
         <v>1423500</v>
@@ -2028,16 +2043,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F52" s="18">
-        <v>3796</v>
+        <v>20878</v>
       </c>
       <c r="G52" s="18">
         <v>1423500</v>
@@ -2051,16 +2066,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F53" s="18">
-        <v>56940</v>
+        <v>20878</v>
       </c>
       <c r="G53" s="18">
         <v>1423500</v>
@@ -2074,16 +2089,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F54" s="18">
-        <v>41756</v>
+        <v>3796</v>
       </c>
       <c r="G54" s="18">
         <v>1423500</v>
@@ -2097,16 +2112,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F55" s="18">
-        <v>45552</v>
+        <v>1898</v>
       </c>
       <c r="G55" s="18">
         <v>1423500</v>
@@ -2117,19 +2132,19 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F56" s="18">
-        <v>37960</v>
+        <v>1898</v>
       </c>
       <c r="G56" s="18">
         <v>1423500</v>
@@ -2143,16 +2158,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F57" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G57" s="18">
         <v>1423500</v>
@@ -2166,16 +2181,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F58" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G58" s="18">
         <v>1423500</v>
@@ -2189,16 +2204,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F59" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G59" s="18">
         <v>1423500</v>
@@ -2212,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F60" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G60" s="18">
         <v>1423500</v>
@@ -2235,16 +2250,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F61" s="18">
-        <v>3796</v>
+        <v>56940</v>
       </c>
       <c r="G61" s="18">
         <v>1423500</v>
@@ -2258,16 +2273,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F62" s="18">
-        <v>1898</v>
+        <v>56940</v>
       </c>
       <c r="G62" s="18">
         <v>1423500</v>
@@ -2277,56 +2292,631 @@
       <c r="J62" s="20"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="22" t="s">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G63" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G66" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="E71" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="24">
-        <v>1898</v>
-      </c>
-      <c r="G63" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="32"/>
-      <c r="H68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="D75" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="18">
+        <v>32266</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" s="18">
+        <v>34164</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F79" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G80" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G81" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G82" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F83" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G83" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G84" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G85" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G86" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G87" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F88" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G88" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="32"/>
+      <c r="H93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="H94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H93:J93"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
